--- a/informatica_Note.xlsx
+++ b/informatica_Note.xlsx
@@ -4,24 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Informatica组件" sheetId="2" r:id="rId2"/>
+    <sheet name="调优" sheetId="3" r:id="rId3"/>
+    <sheet name="缓慢变化维Slowly Changing Dimension" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Informatica组件!$A$1:$D$25</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>对目标表进行插入更新操作注意以下几方面：
   1. 目标表要有默认的主键；
   2. Mapping中的UPDATE组件设为DD_UPDATE;
-  3. Session中Mapping的目标表已勾选Update else Insert选项：
+  3. Session中Mapping的目标表已勾选Update else Insert选项;
   4. Session中Properties选项中的Treat source rows as 选项要选Data driven项;</t>
   </si>
   <si>
@@ -43,18 +47,393 @@
         update else insert:对于所有被标记为Update的数据,先做Update操作,然后对没有Update成功的数据,再进行Insert操作;
         需要注意的是，这三个选项是互斥的,只能选择其中一个.</t>
   </si>
+  <si>
+    <t>在mapping中,使用Filter transformation越早越好.
+尽量使用Source Qualifier transformation来过滤数据.</t>
+  </si>
+  <si>
+    <t>怎样设置master 和 detail以最佳的性能：
+在session运行中，Integration Service会使用master源的每一行来和detail源进行比较。为了达到最佳性能，对于无序的输入源，使用行数最少的作为master；对于有序的，使用duplicate key values最少的为master。默认的，Integration Service会把第一个被引入该组件的pipeline设置为detail。可以在Ports tab 中的ports中的M column来更改。</t>
+  </si>
+  <si>
+    <t>Update Strategry</t>
+  </si>
+  <si>
+    <t>Active/Connected</t>
+  </si>
+  <si>
+    <t>dd_insert,dd_update,dd_delete,dd_reject
+session中,Treat rows:Data Driven</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Passive/Connected</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>根据条件过滤到不符合条件的行</t>
+  </si>
+  <si>
+    <t>Aggregator</t>
+  </si>
+  <si>
+    <t>Active/connected</t>
+  </si>
+  <si>
+    <t>进行汇总计算，如平均值和求和等
+选择需要group by 的字段,添加新字段,输入聚合函数表达式</t>
+  </si>
+  <si>
+    <t>Lookup Procedure</t>
+  </si>
+  <si>
+    <t>Passive/Connected or unconnected</t>
+  </si>
+  <si>
+    <t>获得一个相关的值
+unconnected lookup:
+在lookup中,一个输入值,一个输出值,lookup条件,使用函数:LKP.LKP_name(input_column)获得
+对于记录较少的表,总是推荐使用Cache;
+对于记录条数达到数百万的大表而言,使用Cache并不总是正确的方式,因为创建Cache所付出的代价可能要超过你从Cache文件中快速返回结果所获得的收益.只有在大表不能建立索引的情况下我们才对大表使用Cache,一般对大表而言,如果能够使用索引,就不必建立Cache.</t>
+  </si>
+  <si>
+    <t>Sequence Generator</t>
+  </si>
+  <si>
+    <t>Cycle:循环使用序列号,当序列号当前值到达最大值时,重置序列号为初始值,会造成序列号重复
+Reset:在每运行完一次后,序列号自动重置为初始值(重复使用不能选择该选项)</t>
+  </si>
+  <si>
+    <t>Stored Procedure</t>
+  </si>
+  <si>
+    <t>Passive/Connected or Unconnected</t>
+  </si>
+  <si>
+    <t>Joiner</t>
+  </si>
+  <si>
+    <t>连接两个不同源的关系表或者file系统
+Join Type:指定连接类型:Normal,,Master Outer, Detail Outer,或者 Full Outer.</t>
+  </si>
+  <si>
+    <t>Normalizer</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>只输出最顶层或最低层的n个记录</t>
+  </si>
+  <si>
+    <t>Transcation Control</t>
+  </si>
+  <si>
+    <t>Source Qualifier</t>
+  </si>
+  <si>
+    <t>可覆写sql query</t>
+  </si>
+  <si>
+    <t>Sql</t>
+  </si>
+  <si>
+    <t>Active or Passive/Connected</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>把不同种类或者同种类的源合并到一起</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>External Procedure</t>
+  </si>
+  <si>
+    <t>HTTP Transformation</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>XML Generator</t>
+  </si>
+  <si>
+    <t>XML Parser</t>
+  </si>
+  <si>
+    <t>XML Source Qualifier</t>
+  </si>
+  <si>
+    <t>Source调优:</t>
+  </si>
+  <si>
+    <t>collect performance data?</t>
+  </si>
+  <si>
+    <t>调优Query:添加索引,优化SQL语句</t>
+  </si>
+  <si>
+    <t>用条件过滤</t>
+  </si>
+  <si>
+    <t>增加数据库网络包的大小</t>
+  </si>
+  <si>
+    <t>当Oracle和Informatica在同一机器上,用IPC协议连接Oracle数据库</t>
+  </si>
+  <si>
+    <t>针对文件:调优Line Sequential Buffer Length(1024)</t>
+  </si>
+  <si>
+    <t>Target调优:</t>
+  </si>
+  <si>
+    <t>在Pre_sql中删除索引与约束,在Post_sql中重建索引与约束</t>
+  </si>
+  <si>
+    <t>增加Checkpoint interval</t>
+  </si>
+  <si>
+    <t>使用Bulk loading(对Oracle和SQL Sever有用),只做insert</t>
+  </si>
+  <si>
+    <t>Target load type</t>
+  </si>
+  <si>
+    <t>使用External loading</t>
+  </si>
+  <si>
+    <t>增加Database network Packet size</t>
+  </si>
+  <si>
+    <t>优化目标数据库</t>
+  </si>
+  <si>
+    <t>Mapping调优:</t>
+  </si>
+  <si>
+    <t>最少化转换组件</t>
+  </si>
+  <si>
+    <t>减少不必要的link</t>
+  </si>
+  <si>
+    <t>对Aggregator,Joiner,Rank,Lookup等组件,减少连接的input/output和output字段</t>
+  </si>
+  <si>
+    <t>Single Pass:读一次数据，多次使用</t>
+  </si>
+  <si>
+    <t>减少数据类型转换:数值的比较比字符串更快</t>
+  </si>
+  <si>
+    <t>减少转换错误:使用session tracing terse</t>
+  </si>
+  <si>
+    <t>调优lookup组件:索引,cache,优化lookup条件.在同一个mapping中共享unamed lookup,在不同的mapping中共享named lookup;使用persistent cache.</t>
+  </si>
+  <si>
+    <t>调优Filter组件:
+(1)尽量使用Source Qualifer过滤数据;
+(2)Filter组件要靠近Source Qualifer;
+(3)Filter条件要简单</t>
+  </si>
+  <si>
+    <t>调优Aggregator组件:
+(1)Group by简单的column;
+(2)对数字的处理性能比字符型或日期型能更好;
+(3)避免复杂的表达式;
+(4)最小化汇总函数使用,sum(a+b)比sum(a)+sum(b)性能更好;
+(5)使用Incremental Aggregation;
+(6)Sorted Input</t>
+  </si>
+  <si>
+    <t>调优Joiner组件:
+对于同源数据,用数据库的join代替Join transformation;
+使用较小的表作为主表,以确定有足够的内存来存放数据和索引的cache,这样系统就不必向磁盘要资源;
+Sorted Input;</t>
+  </si>
+  <si>
+    <t>调优Sequence Generator:多个Mapping共享一个Sequence Generator;Number of Cachaed Value&gt;1000</t>
+  </si>
+  <si>
+    <t>调优Expression:
+(1)用本地的变量替换共用的子表达式;
+(2)把字符的比较转化成整数的比较,例如在lookup和filter transformations或者在DECODE()或IIF()表达式中;
+(3)用运算符来替代函数,Informatica Sever读用操作符写的表达式比函数写的快.例如用||而不是concat函数来连接字符;
+(4)考虑表达式是否能重写,例如,复杂的IIF表达式可以被含有很少的IIF的算术表达式所替换</t>
+  </si>
+  <si>
+    <t>Session调优:</t>
+  </si>
+  <si>
+    <t>增加Partition</t>
+  </si>
+  <si>
+    <t>Session参数:
+(1)增加DTM buffer pool size:可以增加Buffer Block的数目;
+(2)增加buffer block size:可以增加一次处理的数据的行数;
+(3)Enable high precision:double 15 to decimal 28;
+(4)Commit Interval</t>
+  </si>
+  <si>
+    <t>日志调优:</t>
+  </si>
+  <si>
+    <t>降低Tracing level的级别,减少输出日志</t>
+  </si>
+  <si>
+    <t>系统调优:</t>
+  </si>
+  <si>
+    <t>增加network speed:本地速度一般是网络的5-29倍;文件拷贝到本地</t>
+  </si>
+  <si>
+    <t>使用多个Informatica sever</t>
+  </si>
+  <si>
+    <t>减少数据Paging到文件中</t>
+  </si>
+  <si>
+    <t>在目标中保存最新值</t>
+  </si>
+  <si>
+    <t>更新前:</t>
+  </si>
+  <si>
+    <t>emp_rid(代理键)</t>
+  </si>
+  <si>
+    <t>emp_id(自然键)</t>
+  </si>
+  <si>
+    <t>emp_name</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>更新机制:</t>
+  </si>
+  <si>
+    <t>lookup目标表,condition:主键相等.
+Expression:insert_flag,update_flag:true/false
+Filter1:update_flag--&gt;Update Strategy1:dd_update
+Filter2:insert_flag--&gt;Update Strategy2:dd_insert(代理键)</t>
+  </si>
+  <si>
+    <t>更新后:</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>在目标中保存完整的更改历史记录</t>
+  </si>
+  <si>
+    <t>当前标志</t>
+  </si>
+  <si>
+    <t>生效日期</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>(null)</t>
+  </si>
+  <si>
+    <t>更新机制:
+(version)</t>
+  </si>
+  <si>
+    <t>lookup目标表,condition:主键相等,Use last value
+Expression:Changed_Flag,New_Falg
+Filter1:Changed_Flag--&gt;Update Strategy1:dd_insert(代理键),version--&gt;version+1
+Filter2:New_Falg--&gt;Update Strategy2:dd_insert(代理键),version--&gt;0</t>
+  </si>
+  <si>
+    <t>更新机制:
+(flag)</t>
+  </si>
+  <si>
+    <t>lookup目标表,condition:主键相等,Use last value
+Expression:Changed_Flag,New_Falg
+Filter1:Changed_Flag--&gt;Update Strategy1:dd_insert(代理键),flag--&gt;1,更新原表flag--&gt;0
+Filter2:New_Falg--&gt;Update Strategy2:dd_insert(代理键),flag--&gt;1</t>
+  </si>
+  <si>
+    <t>更新机制:
+(timestamp)</t>
+  </si>
+  <si>
+    <t>lookup目标表,condition:主键相等,end_date is null
+Expression:Changed_Flag,New_Falg
+Filter1:Changed_Flag--&gt;Update Strategy1:dd_insert(代理键),start_date--&gt;sysdate,end_date--&gt;null,更新原表end_date--&gt;sysdate
+Filter2:New_Falg--&gt;Update Strategy2:dd_insert(代理键),start_date--&gt;sysdate,end_date--&gt;null</t>
+  </si>
+  <si>
+    <t>在目标中保存当前值和以前的值</t>
+  </si>
+  <si>
+    <t>old_position</t>
+  </si>
+  <si>
+    <t>lookup目标表,condition:主键相等,Use last value
+Expression:Changed_Flag,New_Falg
+Filter1:Changed_Flag--&gt;Update Strategy1:dd_update, position
+Filter2:New_Falg--&gt;Update Strategy2:dd_insert(代理键)</t>
+  </si>
+  <si>
+    <t>decode(col1,col2,1,0)</t>
+  </si>
+  <si>
+    <t>col1和col2匹配,返回1,不匹配返回0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,8 +442,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,16 +502,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,56 +530,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,7 +554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,7 +562,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,21 +598,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -216,13 +608,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,169 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,16 +803,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,11 +841,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,36 +891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -515,10 +907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,141 +919,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,49 +1416,66 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="63.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.00833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.25" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81" spans="1:2">
-      <c r="A1" s="1">
+    <row r="1" ht="72" spans="1:2">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="175.5" spans="1:2">
-      <c r="A2" s="1">
+    <row r="2" ht="132" spans="1:4">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="27" spans="1:2">
-      <c r="A3" s="1">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="351" spans="1:2">
-      <c r="A4" s="1">
+    <row r="4" ht="264" spans="1:2">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="24" spans="1:2">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="72" spans="1:2">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1067,14 +1488,330 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" spans="1:4">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="24" spans="1:4">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="96" spans="1:4">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="24" spans="1:4">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" ht="24" spans="1:4">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1084,16 +1821,681 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="24" spans="1:2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="24" spans="1:2">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" ht="36" spans="1:2">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" ht="48" spans="1:2">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" ht="96" spans="1:2">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" ht="60" spans="1:2">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" ht="24" spans="1:2">
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" ht="96" spans="1:2">
+      <c r="A26" s="1">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" ht="74.25" spans="1:2">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" ht="24" spans="1:2">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="49.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="2">
+        <v>101212</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="48" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>101212</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2">
+        <v>101212</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="3">
+        <v>40214</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" ht="72" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" ht="72" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" ht="84" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>101212</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="3">
+        <v>40214</v>
+      </c>
+      <c r="H14" s="3">
+        <v>41072</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>201245</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="3">
+        <v>41072</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" ht="24" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="2">
+        <v>101212</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" ht="60" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>201245</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>